--- a/FileNames/22-MW-QCD-008 Project Binder Contents.xlsx
+++ b/FileNames/22-MW-QCD-008 Project Binder Contents.xlsx
@@ -343,6 +343,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,12 +365,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -370,15 +379,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,319 +743,319 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="23"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
@@ -1188,22 +1188,37 @@
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="A36:M36"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
@@ -1219,21 +1234,6 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/FileNames/22-MW-QCD-008 Project Binder Contents.xlsx
+++ b/FileNames/22-MW-QCD-008 Project Binder Contents.xlsx
@@ -343,28 +343,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -379,6 +370,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,319 +743,319 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="32"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
@@ -1188,22 +1188,37 @@
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="L7:M7"/>
@@ -1219,26 +1234,11 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;LMW-QCD-008&amp;CRevision Date: 1-21-14 C&amp;RRevision Date: 2015/6/8 C</oddFooter>
+    <oddFooter>&amp;LMW-QCD-008&amp;CRevision Date: 1-21-14 C&amp;RRevision Date: 2015/6/9 C</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/FileNames/22-MW-QCD-008 Project Binder Contents.xlsx
+++ b/FileNames/22-MW-QCD-008 Project Binder Contents.xlsx
@@ -343,28 +343,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -379,6 +370,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,319 +743,319 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="32"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="31"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
@@ -1188,22 +1188,37 @@
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="L7:M7"/>
@@ -1219,21 +1234,6 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/FileNames/22-MW-QCD-008 Project Binder Contents.xlsx
+++ b/FileNames/22-MW-QCD-008 Project Binder Contents.xlsx
@@ -343,6 +343,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,12 +365,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -370,15 +379,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,319 +743,319 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="23"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
@@ -1188,22 +1188,37 @@
       <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="A36:M36"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
@@ -1219,26 +1234,11 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;LMW-QCD-008&amp;CRevision Date: 1-21-14 C&amp;RRevision Date: 2015/6/9 C</oddFooter>
+    <oddFooter>&amp;LMW-QCD-008&amp;CRevision Date: 1-21-14 C&amp;RRevision Date: 2015/6/10 C</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/FileNames/22-MW-QCD-008 Project Binder Contents.xlsx
+++ b/FileNames/22-MW-QCD-008 Project Binder Contents.xlsx
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1238,7 +1238,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;LMW-QCD-008&amp;CRevision Date: 1-21-14 C&amp;RRevision Date: 2015/6/10 C</oddFooter>
+    <oddFooter>&amp;LMW-QCD-008&amp;R&amp;P &amp;CRevision Date: 2015/6/11 C</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
